--- a/Lyubima Hristova/Test Case Your logo.xlsx
+++ b/Lyubima Hristova/Test Case Your logo.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -59,40 +59,28 @@
     <t>Lyubima Tedy</t>
   </si>
   <si>
-    <t>1. open site url</t>
-  </si>
-  <si>
     <t>click contact us, fill the data and send message successfully</t>
   </si>
   <si>
-    <t>http://automationpractice.com/index.php</t>
-  </si>
-  <si>
-    <t>Contact us form success</t>
-  </si>
-  <si>
-    <t>User is redirected on the homepage. Contact us option is available</t>
+    <t>opened homepage</t>
   </si>
   <si>
     <t>click contact us</t>
   </si>
   <si>
-    <t>send a message form is opened</t>
-  </si>
-  <si>
     <t>enter corect data</t>
   </si>
   <si>
     <t>click send message</t>
   </si>
   <si>
-    <t>opened homepage, valid email mladenowa_tedi@abv.bg</t>
-  </si>
-  <si>
-    <t>button send I available</t>
-  </si>
-  <si>
     <t>message about successfully sent message</t>
+  </si>
+  <si>
+    <t>Successfully sent message via contact form</t>
+  </si>
+  <si>
+    <t>mladenowa_tedi@abv.bg</t>
   </si>
 </sst>
 </file>
@@ -174,14 +162,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -545,10 +530,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -560,18 +545,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="9"/>
+      <c r="B1" s="8"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -586,14 +571,14 @@
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="4">
         <v>1</v>
       </c>
     </row>
@@ -602,7 +587,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -610,22 +595,22 @@
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="10" t="s">
-        <v>16</v>
+      <c r="B9" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="5">
         <v>43600</v>
       </c>
     </row>
@@ -638,10 +623,10 @@
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="7"/>
+      <c r="B12" s="6"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -652,35 +637,23 @@
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="A14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="3"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="B15" s="3"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -688,11 +661,8 @@
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A1:B3"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="B9" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId2"/>
-  <drawing r:id="rId3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>